--- a/Testdata/TC_131.xlsx
+++ b/Testdata/TC_131.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RwAAB+LCAAAAAAAAAOlWVtvG8cV/isLPrUP5C4vjkVhtAEvkkqUFAWRqqy8FMvdkTj1cofdmZXEtxRJESOtgQJNXLRNWrRA0aJAkwBNgyZu4f8SmLL71L/QM5e9kZTNdQ3B2jm3OXPmzDnfjNDbNzPfuMIhIzTYK1UrVsnAgUs9ElzulSJ+Ua6+VXrbRvs3LvaPndCZYQ7CBmgFbPeGkb3SlPP5rmleX19XrusVGl6aNcuqmg8G/ZE7xTOnTALGncDFpUTLe71WyUYdbzbA3PEc7ijNvVJv1Kt0MHG7QBs4gXOJw0o7YiTAjO0HnHCCmdAMscNxpzv4gVqYXau8Vakic42eSrYj4ntKLiep6FoOpsVjMsN2zarulK1m2aqPreZuo7Fbq1V2mtV3YsVEEPUdxkc4vCKuJIy4M5tLdatp1a1mo1GrIXOjENhKA2Cjoe+d4CvCsNfBvs8KRcTUG9hyOay6WDAtZGZ0taE3d+EwdObTMeE+LubGyWnbmATal9SIjQ5oiF2I3xu5dISvh6EO63jeB+54SkK+6DqLwrZOGQ6HcxGkYqo26tKAt3wc8tM57DX2IBWAYfMwwsi8g5kqdQlz4ZsEEfbsC8dnWaUcE53R8CGbOy4+gnNsChvXgU8dDxKOE8aJm066xkDHIZ2DRZi8TX3vAKxq4Q2MxHIvgBCLaduUPky928REclfl/sKezhwei6/R0WhKr4eBvxhFE+aGZIK9bjuW3shD4kBq7U7EOJ2BFykJKVqGMhiYC/gHZ3CVg7rYJTPHP/Yhjsyug6EcAbUiTi8I71A/mgUsdmuFis5gUWN8kywyGaMh7G8g4k6DXhDLq0hvZOUVTuh1Muc6Q8YhQ24xN97xdcaqcBdo8Q6uc+SmiFUeEB9aRHY7MtR8YoymGPONWaE4SFTDA9F07PbiKJpN4IRN4JhdyVkZMlM+glSFdAe/bAsaSVn+jC1rV/6AHwkb7Qfe3XIxE8F0mbnsKvBWSAjW5Ld9J3gI1DPCp0eteC0bOEhF4E75dR6Cwzv3nYUkJ1HK0lAvcP3Iw6om9IILmaLCN7Wpd7LRGqkPx9xGTrAYL+ZQmhnZ5fCxV4Jmvct4CHCgZLs0Cni4EMUDmVr0dTosmgRyAsffWucixD+OAIUsDqLA7VBv+9k8FZ3TgPDtPaRRqCri9ioyeqI4RqyLRZmRdX9rfbfImlhYSHwW4BkNiLt9tCHIwnvvDRbC4lO1tQZW52treR9au+p84qxvrRYChIReV2iaFmPUJTJZ9fHwMvrmHUemiy+cyAf4xqHLXia1d5WMWuzhqkyWhE5DP66AtgDHDNCx680qLuAHgQArLp0Jggmg9GyEzKy8AEEu3g8u+05wGQHMSOrKKj2pv6JFjkMnYGI5CapYKcWbhVBcpxTasVXxGkYyEVTxosBF5oocGuPZnIaOP4DAkAOddhoyARoZOHyqR9DbfOzGQTZT1UQr71ns+OvEZJNSyxAHXpfJFaIUEmtRODyVSWlIrHIAx9LvOD6ZhKqqxq18Ew82LMWHcf0ViyuIFeM9gLsYdN/v44UA6OlA02XKVmOGSmBRSO3RSWOn1mjugJIcI7niDvhEfSLxpXFI4ToYzEDPAGSMATnuGgsOR0EFRzegAnpZDXQQ13Y5/QBSNEfI8wFiXBLoHGtyCSOVtwcAPKf+IiOpVtenLgguf/Fo+fVXtx89W37zye1HXy1/+qf//us3y6+/XD769OUHf3/+9EO1PiWMxs7Ex9KhcXtnx6o3ILUSEhLxNCUg9iKXS9r5ucTByRjp65wcdPZ7ncN+W5aQhBirqy5iipvigkbpcKQWISeSu2jGm69E7HFckvQ4x810JVvc3K5wXjrLv0tRxeLF0z+/ePq3O7V1wFJ4VW0269ugL7gDN8pW7Q701c+VfS18r1yrZYRXZNCJqvlJnHqeXa9azerOfaualG8vyeBNQqssbWnsXJoreorUUYgoSYHsOGbKvB9jxhO2OgmZgQri7T9+9vLzj3NSOrqakrcCzknkIiYz44E0fXQyNkbD05POvjHeH4k8SXkZOWX8FcJ69uQ8ZZNm/bTlUmoTVZl7peLqjIchjeZrlSKlbpDcWDPWuSuaMjbrrqW8DfJ61z55tElBr6SbAtLkCSNLQzmOImX4unY9/snzb549f/b+i3//6vbJ58vHf1z+872cHT1bcr+H1IUDkh0mmQxVTHeNFQo6G8mYPrR+mOkSmiiuQ8eUBJzZtXsNeRXSQwS6VWFO/ka9GXQuaVmGDegrFPQ9h+3fcH1Y7SNk5gng6NyBpknTK2RCUHU5De9/Pv3d7W+/vH3yxcsP/rr88C/Lnz958fT3Lz/7gzpJtx9/cfv4M125V4u79EVcTBWWM+RLh2uIE2aIFmx8++4vjYByA5CDEckq8+27v84YE45KjJFaBmSWOJJ3YU00qyz0jIwriQ85vURF9fGOaEv1REI3JjonbjrJO2VhCuClIRnf6Y3LEcMGBVD0XVhJXjhV3lZPq6g2eXzfqlVrmqu8EUuYOCwT+kOfThzfiBnyHWFFJKf1aoVUVs532B+2W/1URDkxDD0cijRUHyhGhqJN9Fg8ilMtQwEu4Dc38sXTz5rYOiuxnClnpn5DuWh54kF984tDTgJ1ojBUKCfQr/KjaA6YNn5su5svHyAzMPZIQc4ssE3HvW6eD+MMF5pbni0Iki8rlGapatVj4rlGodIjEZp0CLzcoyWEQz+8K/R0RWBLTFF49sOQhhurT8qJxQYAiKGimGnEExm5pwo8e+lexYS44iUf6gKnV0i72Me82Ku0mWoPAP2+qS7sfVHVHhv6ng5msRtEEpbUQPZpXiTK//syr5KtFYYAlsQ7XuGn9Pj+eQLX1oLeqKVIRXGRg9n1W/cBCRl/ICqB/lKU84RyrlDnA3FvUh9yfG7X7ykCCJhZ62bOzfjocvUHEur3yYwUvN1Z8fnOG4FYzucKlvWKZYpoLUf4BkBjxgIUxcmPoG2o55Ai1lTCQi1N9MUTJCOXU17UsfsTB3t4YpXdCa6VG561U25iXC9Xq/C/49ZqlnVPPGBq41A5CL4uOIkZb1j6h0v7fx++edDxHAAA</t>
+          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB6XY7yThRpVe+JVjYcRQ7ZLIvqN1djou0u01XdRK/LQK0o4WRkNgdBOyCQEIgJHZXYlmxO6D5L6txZnjiL3Dq0lc7M+4wijRd51anTp0656syeud25paucUCJ7x2Uq1t6uYQ923eId3lQDtmkUt0tv2Oizq2N3RMrsGaYgXAJtDy6f0vJQXnK2Hxf025ubrZualt+cKkZul7VHvd7Q3uKZ1aFeJRZno3LsZbzdq2yiVrOrI+Z5VjMkpoH5e6wu9XCxG4DrW951iUOtpohJR6mtOMxwgimXDPAFsOtdv97cmGmsbW7VUXaCj2RbIbEdaRcRlLSlRxMi0dkhk1DN/SKXq8Y+qha3de3943a1p6++26kGAuinkXZEAfXxBaEIbNmc6Gu1w29WtW3jRrS1gqBrSQAJhq4zim+JhQ7Ley6tFBENLWBDZvBqosFU0daSlcZergLR4E1n44Ic3FR9UM/wDYE6kFzH+ObQaDiN5r3gDuakoAt2taisK0zioPBnEejmKqJ2r7HGi4O2NkcNhU7sOfAMFkQYqTdw0yU2oTa8E28EDvmxHJpWinDROd+cEXnlo2P4cBq3MaN5/qWA5nFCGXETiZdYaCTwJ+DRZi86bvOIVhVwmsYseWuByHm0zZ9/yrxbh0TiRwQ2QB7OrNYJL5CR8OpfzPw3MUwHFM7IGPstJuR9Foe4idPabdCyvwZeJGQkKSlKP2+toB/cNjyHNTGNplZ7okLcaQmHNMsATVC5k8Ia/luOPNo5FaOis5hUSN8Gy8yHqMB7K/H4+57XS+Sl5Fey8oqnPo38ZyrDBGHFLlB7WjHVxl54TbQoh1c5YhN4as8JC70gvR2pKjZxBhOMWZrs0JyEC97h7y7mM3FcTgbwwkbwzG7FrNSpCV8BKkK6Q5+mTp0jIr4G+n6vvgDP2I26njO/XIRE8F0qbnMKvByJARrcpuu5V0B9Zyw6XEjWssaDpIRuFd+lYfg8M5dayHIcZTSNNT1bDd0sKwJXW8iUpT7Jjf1XjZaIfXgmJvI8hajxRxqMCX7DD4OytCV9ykLoO+XTdsPPRYsePFAmhJ9mw4Nx56YwHI31pkE+IchwI3FYejZLd/ZfDZHRufMI2xzD/0wkBVxcxURPV4cQ9rGvMyIur+xvl1kTTQoJD7z8Mz3iL15tCHI3HvnAQuh0anaWAPL87WxvAutXXY+ftY3VgsAK0KvKzRNg1LfJiJZ1fFwUvraPUemjSdW6AJOY9BlL+PamyejBr3Ky6RJ6CxwowpochRMAQbbzmzLBvzAod6W7c84QQP0eT5EWlqegyAbd7zLnuVdhgAz4rqSp8f1l7fIUWB5lC8nRhW5UrxeCEV1SqIdUxavQSgSQRYvH7hIy8mhEZ7N/cBy+xAYcqjSTkEmQCN9i03VCHqbi+0oyFqiGmtlPYscf5uYaFJyGfzAqzKZIwohvhYJuBOZhIb4KvtwLN2W5ZJxIKtq1MrX8WDDEnwY1V++uIJYMdoDuHRB9/0uXnAkngwUXaRsNWLIBOaF1ByebteN7b06KIkxEitugU++SwS+LB35cO/zZqBXAmSMATnulxYMjoIMjmpABfTSGugwqu1i+j6kaIaQ5QPEuCTQOVbkYkYib/YBeE7dRUpSrq7n2yC4/MWT5Vdf3n34Yvn1x3cffrn86Z/++6/fLL/6Yvnkk9fv//3l8w/k+qQwGlljFwuHRs16Xa9tQ2rFJMTjqQlA7IQ2E7SLC4GD4zFS9zYxaHW6raNeU5SQmBipyy6i8Svhwg+T4VAuQkwkdlGLNl+KmKOoJKlxhpvqSia/ol3jrHSaf5+ijMWr539+9fxv92qrgCXwqrq3V9sEfcE1d7uiG/egr16m7CvhnYphpIRzMuhU1vw4Tl3HrFX1vWr9kV6Ny7cTZ/A6oTxLWRpZl1pOT5JaEhHFKZAeR0yR9yNMWcyWJyE1kEG8+8fPXn/2UUZKRVdRslbAOYFc+GRaNBCmj09HpeHg7LTVKY06Q54nCS8lJ42/QVjNHp+ndNKsnrZMSq2jSnNvVMzPeBT44XylUiTUNZJra8YqN6cpYrPqWsJbI6927eMn6xTUStoJIDVPz5qlsRcnmaChDEeSUnxVu57+6OXXL16++Mmrf//q7tlny6d/XP7zxxk7arb4fg+pCwckPYwzGaqY6ho5Cjofiphe6d9PdQlF5NehE594jJrGzra4CqkhAt0qNyf+R90ZdC5hWYQN6DkK+o5FO7dMHVbzGGlZAjg6t6Bp+skVMibIupyE9z+f/O7ut1/cPfv89ft/XX7wl+XPn716/vvXn/5BnqS7jz6/e/qpqtz54i584RdTieVK4qXDLvETVuItuPTNe78seT4rAXIohaLKfPPer1PGuKMCYySWAZnFjmRdWBFNK3O9UsqV2IeMXqwi+3iLt6VaLKEakz8ndjLJuxVuCuBlSTC+1R1VQopLPoCib8NKssKJ8qZ6SkW2yZNHulE1FFd6w5cwtmgq9EeuP7bcUsQQ7wg5kYzWmxUSWTHfUW/QbPQSEenEIHBwwNNQfqAujbBhlF4pCnABs9mhy597VsRWWSj6SpUwTb2bTBoOfy1f/8qQkUCtMAgksvHUk/swnAOOjR7Y7ueLR8cUdD2WMDMNZpNxt53lwzjFhYaWZXOC4IuqpFiyQnUpf6KRSPSYhyYZAi/zUAnhUK/qEjFdE9gGjRebThD4wdqKk3AisT6AYKgiWhLxWEbjU0rA7CR7FRGiKhd/yEubWqHfxi5mhZ+cI+0+IN6H6sLeF1Xt0oHrqGAWuzXEYUkMpN/deaIUdaYRBACF+Ctd4YfyHvGuusVWbzpjRzdqO7r9aHts7xn1mjV2diZOrW5jy6nvAhgURvklkpvgtxB+BSs2CQDArHpyXT6FC3RBazLAQpFfKSFS4kCqwh6P0SEJKHvMS5T6kpSLmHIh4fBj7p/8EOMLs7YjCSCgpSfTMl5H9YXJn2h8t0dmpOC1U4+KUNYIpMF8LvFi0Q2FnneMbwHNpixAtR7/APqZfKcpYk2eKijysX5kaxiOC5vTIuUT4PPEeph2xwFg9nBt8YMHcf8PBwTyeqiJrkfJ5ZQV3VcDrn94FxsVY2LblW0YVKAbjyuONdmr6vqk5uwY/GFaGYfuQPBNwUl4TyE0tNzielruF2vzfxIPbrfqHgAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796309</v>
+        <v>-0.3785388757796306</v>
       </c>
     </row>
     <row r="21">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Consolidated Government Revenue: ytd</Name>
+          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
+          <SeriesId>310918701</SeriesId>
+          <Code>SR4824980</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2C84125-3BE0-48E5-8383-F39864E1C88E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_131.xlsx
+++ b/Testdata/TC_131.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB6XY7yThRpVe+JVjYcRQ7ZLIvqN1djou0u01XdRK/LQK0o4WRkNgdBOyCQEIgJHZXYlmxO6D5L6txZnjiL3Dq0lc7M+4wijRd51anTp0656syeud25paucUCJ7x2Uq1t6uYQ923eId3lQDtmkUt0tv2Oizq2N3RMrsGaYgXAJtDy6f0vJQXnK2Hxf025ubrZualt+cKkZul7VHvd7Q3uKZ1aFeJRZno3LsZbzdq2yiVrOrI+Z5VjMkpoH5e6wu9XCxG4DrW951iUOtpohJR6mtOMxwgimXDPAFsOtdv97cmGmsbW7VUXaCj2RbIbEdaRcRlLSlRxMi0dkhk1DN/SKXq8Y+qha3de3943a1p6++26kGAuinkXZEAfXxBaEIbNmc6Gu1w29WtW3jRrS1gqBrSQAJhq4zim+JhQ7Ley6tFBENLWBDZvBqosFU0daSlcZergLR4E1n44Ic3FR9UM/wDYE6kFzH+ObQaDiN5r3gDuakoAt2taisK0zioPBnEejmKqJ2r7HGi4O2NkcNhU7sOfAMFkQYqTdw0yU2oTa8E28EDvmxHJpWinDROd+cEXnlo2P4cBq3MaN5/qWA5nFCGXETiZdYaCTwJ+DRZi86bvOIVhVwmsYseWuByHm0zZ9/yrxbh0TiRwQ2QB7OrNYJL5CR8OpfzPw3MUwHFM7IGPstJuR9Foe4idPabdCyvwZeJGQkKSlKP2+toB/cNjyHNTGNplZ7okLcaQmHNMsATVC5k8Ia/luOPNo5FaOis5hUSN8Gy8yHqMB7K/H4+57XS+Sl5Fey8oqnPo38ZyrDBGHFLlB7WjHVxl54TbQoh1c5YhN4as8JC70gvR2pKjZxBhOMWZrs0JyEC97h7y7mM3FcTgbwwkbwzG7FrNSpCV8BKkK6Q5+mTp0jIr4G+n6vvgDP2I26njO/XIRE8F0qbnMKvByJARrcpuu5V0B9Zyw6XEjWssaDpIRuFd+lYfg8M5dayHIcZTSNNT1bDd0sKwJXW8iUpT7Jjf1XjZaIfXgmJvI8hajxRxqMCX7DD4OytCV9ykLoO+XTdsPPRYsePFAmhJ9mw4Nx56YwHI31pkE+IchwI3FYejZLd/ZfDZHRufMI2xzD/0wkBVxcxURPV4cQ9rGvMyIur+xvl1kTTQoJD7z8Mz3iL15tCHI3HvnAQuh0anaWAPL87WxvAutXXY+ftY3VgsAK0KvKzRNg1LfJiJZ1fFwUvraPUemjSdW6AJOY9BlL+PamyejBr3Ky6RJ6CxwowpochRMAQbbzmzLBvzAod6W7c84QQP0eT5EWlqegyAbd7zLnuVdhgAz4rqSp8f1l7fIUWB5lC8nRhW5UrxeCEV1SqIdUxavQSgSQRYvH7hIy8mhEZ7N/cBy+xAYcqjSTkEmQCN9i03VCHqbi+0oyFqiGmtlPYscf5uYaFJyGfzAqzKZIwohvhYJuBOZhIb4KvtwLN2W5ZJxIKtq1MrX8WDDEnwY1V++uIJYMdoDuHRB9/0uXnAkngwUXaRsNWLIBOaF1ByebteN7b06KIkxEitugU++SwS+LB35cO/zZqBXAmSMATnulxYMjoIMjmpABfTSGugwqu1i+j6kaIaQ5QPEuCTQOVbkYkYib/YBeE7dRUpSrq7n2yC4/MWT5Vdf3n34Yvn1x3cffrn86Z/++6/fLL/6Yvnkk9fv//3l8w/k+qQwGlljFwuHRs16Xa9tQ2rFJMTjqQlA7IQ2E7SLC4GD4zFS9zYxaHW6raNeU5SQmBipyy6i8Svhwg+T4VAuQkwkdlGLNl+KmKOoJKlxhpvqSia/ol3jrHSaf5+ijMWr539+9fxv92qrgCXwqrq3V9sEfcE1d7uiG/egr16m7CvhnYphpIRzMuhU1vw4Tl3HrFX1vWr9kV6Ny7cTZ/A6oTxLWRpZl1pOT5JaEhHFKZAeR0yR9yNMWcyWJyE1kEG8+8fPXn/2UUZKRVdRslbAOYFc+GRaNBCmj09HpeHg7LTVKY06Q54nCS8lJ42/QVjNHp+ndNKsnrZMSq2jSnNvVMzPeBT44XylUiTUNZJra8YqN6cpYrPqWsJbI6927eMn6xTUStoJIDVPz5qlsRcnmaChDEeSUnxVu57+6OXXL16++Mmrf//q7tlny6d/XP7zxxk7arb4fg+pCwckPYwzGaqY6ho5Cjofiphe6d9PdQlF5NehE594jJrGzra4CqkhAt0qNyf+R90ZdC5hWYQN6DkK+o5FO7dMHVbzGGlZAjg6t6Bp+skVMibIupyE9z+f/O7ut1/cPfv89ft/XX7wl+XPn716/vvXn/5BnqS7jz6/e/qpqtz54i584RdTieVK4qXDLvETVuItuPTNe78seT4rAXIohaLKfPPer1PGuKMCYySWAZnFjmRdWBFNK3O9UsqV2IeMXqwi+3iLt6VaLKEakz8ndjLJuxVuCuBlSTC+1R1VQopLPoCib8NKssKJ8qZ6SkW2yZNHulE1FFd6w5cwtmgq9EeuP7bcUsQQ7wg5kYzWmxUSWTHfUW/QbPQSEenEIHBwwNNQfqAujbBhlF4pCnABs9mhy597VsRWWSj6SpUwTb2bTBoOfy1f/8qQkUCtMAgksvHUk/swnAOOjR7Y7ueLR8cUdD2WMDMNZpNxt53lwzjFhYaWZXOC4IuqpFiyQnUpf6KRSPSYhyYZAi/zUAnhUK/qEjFdE9gGjRebThD4wdqKk3AisT6AYKgiWhLxWEbjU0rA7CR7FRGiKhd/yEubWqHfxi5mhZ+cI+0+IN6H6sLeF1Xt0oHrqGAWuzXEYUkMpN/deaIUdaYRBACF+Ctd4YfyHvGuusVWbzpjRzdqO7r9aHts7xn1mjV2diZOrW5jy6nvAhgURvklkpvgtxB+BSs2CQDArHpyXT6FC3RBazLAQpFfKSFS4kCqwh6P0SEJKHvMS5T6kpSLmHIh4fBj7p/8EOMLs7YjCSCgpSfTMl5H9YXJn2h8t0dmpOC1U4+KUNYIpMF8LvFi0Q2FnneMbwHNpixAtR7/APqZfKcpYk2eKijysX5kaxiOC5vTIuUT4PPEeph2xwFg9nBt8YMHcf8PBwTyeqiJrkfJ5ZQV3VcDrn94FxsVY2LblW0YVKAbjyuONdmr6vqk5uwY/GFaGYfuQPBNwUl4TyE0tNzielruF2vzfxIPbrfqHgAA</t>
+          <t>8RwAAB+LCAAAAAAAAAOlWVtvG8cV/isLPrUP5C4vjkVhtAEvkkqUFAWRqqy8FMvdkTj1cofdmZXEtxRJESOtgQJNXLRNWrRA0aJAkwBNgyZu4f8SmLL71L/QM5e9kZTNdQ3B2jm3OXPmzDnfjNDbNzPfuMIhIzTYK1UrVsnAgUs9ElzulSJ+Ua6+VXrbRvs3LvaPndCZYQ7CBmgFbPeGkb3SlPP5rmleX19XrusVGl6aNcuqmg8G/ZE7xTOnTALGncDFpUTLe71WyUYdbzbA3PEc7ijNvVJv1Kt0MHG7QBs4gXOJw0o7YiTAjO0HnHCCmdAMscNxpzv4gVqYXau8Vakic42eSrYj4ntKLiep6FoOpsVjMsN2zarulK1m2aqPreZuo7Fbq1V2mtV3YsVEEPUdxkc4vCKuJIy4M5tLdatp1a1mo1GrIXOjENhKA2Cjoe+d4CvCsNfBvs8KRcTUG9hyOay6WDAtZGZ0taE3d+EwdObTMeE+LubGyWnbmATal9SIjQ5oiF2I3xu5dISvh6EO63jeB+54SkK+6DqLwrZOGQ6HcxGkYqo26tKAt3wc8tM57DX2IBWAYfMwwsi8g5kqdQlz4ZsEEfbsC8dnWaUcE53R8CGbOy4+gnNsChvXgU8dDxKOE8aJm066xkDHIZ2DRZi8TX3vAKxq4Q2MxHIvgBCLaduUPky928REclfl/sKezhwei6/R0WhKr4eBvxhFE+aGZIK9bjuW3shD4kBq7U7EOJ2BFykJKVqGMhiYC/gHZ3CVg7rYJTPHP/Yhjsyug6EcAbUiTi8I71A/mgUsdmuFis5gUWN8kywyGaMh7G8g4k6DXhDLq0hvZOUVTuh1Muc6Q8YhQ24xN97xdcaqcBdo8Q6uc+SmiFUeEB9aRHY7MtR8YoymGPONWaE4SFTDA9F07PbiKJpN4IRN4JhdyVkZMlM+glSFdAe/bAsaSVn+jC1rV/6AHwkb7Qfe3XIxE8F0mbnsKvBWSAjW5Ld9J3gI1DPCp0eteC0bOEhF4E75dR6Cwzv3nYUkJ1HK0lAvcP3Iw6om9IILmaLCN7Wpd7LRGqkPx9xGTrAYL+ZQmhnZ5fCxV4Jmvct4CHCgZLs0Cni4EMUDmVr0dTosmgRyAsffWucixD+OAIUsDqLA7VBv+9k8FZ3TgPDtPaRRqCri9ioyeqI4RqyLRZmRdX9rfbfImlhYSHwW4BkNiLt9tCHIwnvvDRbC4lO1tQZW52treR9au+p84qxvrRYChIReV2iaFmPUJTJZ9fHwMvrmHUemiy+cyAf4xqHLXia1d5WMWuzhqkyWhE5DP66AtgDHDNCx680qLuAHgQArLp0Jggmg9GyEzKy8AEEu3g8u+05wGQHMSOrKKj2pv6JFjkMnYGI5CapYKcWbhVBcpxTasVXxGkYyEVTxosBF5oocGuPZnIaOP4DAkAOddhoyARoZOHyqR9DbfOzGQTZT1UQr71ns+OvEZJNSyxAHXpfJFaIUEmtRODyVSWlIrHIAx9LvOD6ZhKqqxq18Ew82LMWHcf0ViyuIFeM9gLsYdN/v44UA6OlA02XKVmOGSmBRSO3RSWOn1mjugJIcI7niDvhEfSLxpXFI4ToYzEDPAGSMATnuGgsOR0EFRzegAnpZDXQQ13Y5/QBSNEfI8wFiXBLoHGtyCSOVtwcAPKf+IiOpVtenLgguf/Fo+fVXtx89W37zye1HXy1/+qf//us3y6+/XD769OUHf3/+9EO1PiWMxs7Ex9KhcXtnx6o3ILUSEhLxNCUg9iKXS9r5ucTByRjp65wcdPZ7ncN+W5aQhBirqy5iipvigkbpcKQWISeSu2jGm69E7HFckvQ4x810JVvc3K5wXjrLv0tRxeLF0z+/ePq3O7V1wFJ4VW0269ugL7gDN8pW7Q701c+VfS18r1yrZYRXZNCJqvlJnHqeXa9azerOfaualG8vyeBNQqssbWnsXJoreorUUYgoSYHsOGbKvB9jxhO2OgmZgQri7T9+9vLzj3NSOrqakrcCzknkIiYz44E0fXQyNkbD05POvjHeH4k8SXkZOWX8FcJ69uQ8ZZNm/bTlUmoTVZl7peLqjIchjeZrlSKlbpDcWDPWuSuaMjbrrqW8DfJ61z55tElBr6SbAtLkCSNLQzmOImX4unY9/snzb549f/b+i3//6vbJ58vHf1z+872cHT1bcr+H1IUDkh0mmQxVTHeNFQo6G8mYPrR+mOkSmiiuQ8eUBJzZtXsNeRXSQwS6VWFO/ka9GXQuaVmGDegrFPQ9h+3fcH1Y7SNk5gng6NyBpknTK2RCUHU5De9/Pv3d7W+/vH3yxcsP/rr88C/Lnz958fT3Lz/7gzpJtx9/cfv4M125V4u79EVcTBWWM+RLh2uIE2aIFmx8++4vjYByA5CDEckq8+27v84YE45KjJFaBmSWOJJ3YU00qyz0jIwriQ85vURF9fGOaEv1REI3JjonbjrJO2VhCuClIRnf6Y3LEcMGBVD0XVhJXjhV3lZPq6g2eXzfqlVrmqu8EUuYOCwT+kOfThzfiBnyHWFFJKf1aoVUVs532B+2W/1URDkxDD0cijRUHyhGhqJN9Fg8ilMtQwEu4Dc38sXTz5rYOiuxnClnpn5DuWh54kF984tDTgJ1ojBUKCfQr/KjaA6YNn5su5svHyAzMPZIQc4ssE3HvW6eD+MMF5pbni0Iki8rlGapatVj4rlGodIjEZp0CLzcoyWEQz+8K/R0RWBLTFF49sOQhhurT8qJxQYAiKGimGnEExm5pwo8e+lexYS44iUf6gKnV0i72Me82Ku0mWoPAP2+qS7sfVHVHhv6ng5msRtEEpbUQPZpXiTK//syr5KtFYYAlsQ7XuGn9Pj+eQLX1oLeqKVIRXGRg9n1W/cBCRl/ICqB/lKU84RyrlDnA3FvUh9yfG7X7ykCCJhZ62bOzfjocvUHEur3yYwUvN1Z8fnOG4FYzucKlvWKZYpoLUf4BkBjxgIUxcmPoG2o55Ai1lTCQi1N9MUTJCOXU17UsfsTB3t4YpXdCa6VG561U25iXC9Xq/C/49ZqlnVPPGBq41A5CL4uOIkZb1j6h0v7fx++edDxHAAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796306</v>
+        <v>-0.3785388757796309</v>
       </c>
     </row>
     <row r="21">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Consolidated Government Revenue: ytd</Name>
-          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
-          <SeriesId>310918701</SeriesId>
-          <Code>SR4824980</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2C84125-3BE0-48E5-8383-F39864E1C88E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>